--- a/biology/Biochimie/Navette_mitochondriale/Navette_mitochondriale.xlsx
+++ b/biology/Biochimie/Navette_mitochondriale/Navette_mitochondriale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Une navette mitochondriale est un mécanisme d'échange de molécules des cellules eucaryotes permettant de transférer aux mitochondries les électrons à haut potentiel de transfert libérés dans le cytosol par des réactions d'oxydoréduction telles que la glycolyse afin d'être entièrement oxydés par la chaîne respiratoire de la phosphorylation oxydative.
-Il existe deux navettes mitochondriales chez l'homme[1], qui sont distribuées dans des organes différents :
+Il existe deux navettes mitochondriales chez l'homme, qui sont distribuées dans des organes différents :
 la navette du glycérol-3-phosphate est exprimée essentiellement dans les muscles et le cerveau et permet d'oxyder dans les mitochondries plus rapidement mais moins efficacement les électrons à haut potentiel de transfert issus des oxydations cytosoliques ;
 la navette malate-aspartate prédomine dans le reste du corps et assure l'essentiel de la métabolisation des électrons cytosoliques à haut potentiel de transfert.</t>
         </is>
